--- a/csv/main-files/Aundh.xlsx
+++ b/csv/main-files/Aundh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="100">
   <si>
     <t>Prabhag 6A : Archana Kamble</t>
   </si>
@@ -67,55 +67,10 @@
     <t>GY</t>
   </si>
   <si>
-    <t>Benches</t>
+    <t>Prabhag 6B : Prakash Dhore</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Computers</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>2013 - 2014</t>
-  </si>
-  <si>
-    <t>Furniture work</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>68/77</t>
-  </si>
-  <si>
-    <t>2014 - 2015</t>
-  </si>
-  <si>
-    <t>92/116</t>
-  </si>
-  <si>
-    <t>Hospital / clinic / medical facilities</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>2015 - 2016</t>
-  </si>
-  <si>
-    <t>96/127</t>
-  </si>
-  <si>
-    <t>Final Total</t>
-  </si>
-  <si>
-    <t>Prabhag 6B : Prakash Dhore</t>
+    <t>Prabhag 7A : Shashikala Gaikwad</t>
   </si>
   <si>
     <t>58/66</t>
@@ -127,19 +82,55 @@
     <t>D</t>
   </si>
   <si>
+    <t>52/66</t>
+  </si>
+  <si>
     <t>Toilet- building / Renovation/Maintenance</t>
   </si>
   <si>
     <t>TO</t>
   </si>
   <si>
+    <t>Benches</t>
+  </si>
+  <si>
     <t xml:space="preserve">Waste Disposal </t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>WD</t>
   </si>
   <si>
+    <t>Dustbin distribution/ Buckets</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Fencing, walls</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>Cemetory / cremetory</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>2013 - 2014</t>
+  </si>
+  <si>
     <t>69/77</t>
+  </si>
+  <si>
+    <t>2014 - 2015</t>
   </si>
   <si>
     <t>99/116</t>
@@ -157,31 +148,19 @@
     <t>E</t>
   </si>
   <si>
+    <t>2015 - 2016</t>
+  </si>
+  <si>
+    <t>Hospital / clinic / medical facilities</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>110/127</t>
   </si>
   <si>
-    <t>Prabhag 7A : Shashikala Gaikwad</t>
-  </si>
-  <si>
-    <t>52/66</t>
-  </si>
-  <si>
-    <t>Dustbin distribution/ Buckets</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>Fencing, walls</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>Cemetory / cremetory</t>
-  </si>
-  <si>
-    <t>CM</t>
+    <t>Final Total</t>
   </si>
   <si>
     <t>56/77</t>
@@ -214,10 +193,31 @@
     <t>42/77</t>
   </si>
   <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
     <t>80/116</t>
   </si>
   <si>
     <t>103/127</t>
+  </si>
+  <si>
+    <t>Furniture work</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>68/77</t>
+  </si>
+  <si>
+    <t>92/116</t>
+  </si>
+  <si>
+    <t>96/127</t>
   </si>
   <si>
     <t>Prabhag 8A : Chandrashekhar Nimhan</t>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  P</t>
   </si>
   <si>
     <t>44/77</t>
@@ -259,6 +256,12 @@
     <t>Prabhag 8B : Sangita Gaikwad</t>
   </si>
   <si>
+    <t>Prabhag 9A : Ranjana Murkute</t>
+  </si>
+  <si>
+    <t>60/77</t>
+  </si>
+  <si>
     <t>48/66</t>
   </si>
   <si>
@@ -272,12 +275,6 @@
   </si>
   <si>
     <t>95/127</t>
-  </si>
-  <si>
-    <t>Prabhag 9A : Ranjana Murkute</t>
-  </si>
-  <si>
-    <t>60/77</t>
   </si>
   <si>
     <t>Prabhag 9B : Baborao Chandere</t>
@@ -301,22 +298,22 @@
     <t>64/77</t>
   </si>
   <si>
+    <t>Prabhag 10B : Sushma Nimhan</t>
+  </si>
+  <si>
     <t>Building of Bus stop shed</t>
   </si>
   <si>
     <t>BS</t>
   </si>
   <si>
+    <t>60/66</t>
+  </si>
+  <si>
     <t>79/116</t>
   </si>
   <si>
     <t>111/127</t>
-  </si>
-  <si>
-    <t>Prabhag 10B : Sushma Nimhan</t>
-  </si>
-  <si>
-    <t>60/66</t>
   </si>
   <si>
     <t>84/116</t>
@@ -526,7 +523,10 @@
       <alignment/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -545,9 +545,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -560,7 +557,7 @@
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -577,43 +574,43 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -803,14 +800,14 @@
       <c r="B8" s="10">
         <v>6.0</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>15</v>
+      <c r="C8" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="12">
         <v>166757.0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -843,14 +840,14 @@
       <c r="B10" s="10">
         <v>8.0</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>15</v>
+      <c r="C10" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="12">
         <v>129562.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -864,13 +861,13 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D11" s="12">
         <v>120653.0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -884,54 +881,54 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D12" s="12">
         <v>120653.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="21" t="str">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="22" t="str">
         <f>SUM(D3:D12)</f>
         <v>1558159</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B14" s="10">
         <v>1.0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D14" s="12">
         <v>163764.0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F14" s="14">
         <v>0.0</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="H14" s="14">
         <v>88.31</v>
@@ -939,60 +936,60 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10">
         <v>2.0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D15" s="12">
         <v>199629.0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="21" t="str">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="22" t="str">
         <f>SUM(D14:D15)</f>
         <v>363393</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B17" s="10">
         <v>1.0</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>15</v>
+      <c r="C17" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="12">
         <v>33648.0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F17" s="14">
         <v>0.0</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H17" s="14">
         <v>79.31</v>
@@ -1000,12 +997,12 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B18" s="10">
         <v>2.0</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="12">
@@ -1020,12 +1017,12 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" s="10">
         <v>3.0</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="12">
@@ -1040,16 +1037,16 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B20" s="10">
         <v>4.0</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="12">
-        <v>1159551.0</v>
+        <v>159551.0</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>11</v>
@@ -1060,12 +1057,12 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21" s="10">
         <v>5.0</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="12">
@@ -1080,12 +1077,12 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B22" s="10">
         <v>6.0</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="12">
@@ -1100,47 +1097,47 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B23" s="10">
         <v>7.0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D23" s="12">
         <v>138667.0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="21" t="str">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="22" t="str">
         <f>SUM(D17:D23)</f>
-        <v>1933122</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+        <v>933122</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B25" s="10">
         <v>1.0</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="12">
@@ -1153,26 +1150,26 @@
         <v>0.0</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="H25" s="14">
         <v>75.59</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="21" t="str">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="22" t="str">
         <f>SUM(D25)</f>
         <v>99111</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27">
       <c r="A27" s="8"/>
@@ -1185,11 +1182,11 @@
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D28" s="28" t="str">
         <f>(D13+D16+D24+D26)</f>
-        <v>3953785</v>
+        <v>2953785</v>
       </c>
       <c r="E28" s="26"/>
     </row>
@@ -8013,19 +8010,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G17:G24"/>
+    <mergeCell ref="G3:G13"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="H3:H13"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:H24"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="F3:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F24"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G17:G24"/>
-    <mergeCell ref="G3:G13"/>
-    <mergeCell ref="G14:G16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8050,7 +8047,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8111,20 +8108,20 @@
       <c r="B3" s="10">
         <v>1.0</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>15</v>
+      <c r="C3" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="12">
         <v>166757.0</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" s="14">
         <v>0.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H3" s="14">
         <v>90.9</v>
@@ -8137,14 +8134,14 @@
       <c r="B4" s="10">
         <v>2.0</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>15</v>
+      <c r="C4" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="12">
         <v>166757.0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8157,14 +8154,14 @@
       <c r="B5" s="10">
         <v>3.0</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>15</v>
+      <c r="C5" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="12">
         <v>126629.0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -8177,14 +8174,14 @@
       <c r="B6" s="10">
         <v>4.0</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>15</v>
+      <c r="C6" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="12">
         <v>113796.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -8197,14 +8194,14 @@
       <c r="B7" s="10">
         <v>5.0</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>15</v>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="12">
         <v>153551.0</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -8237,14 +8234,14 @@
       <c r="B9" s="10">
         <v>7.0</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>15</v>
+      <c r="C9" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="12">
         <v>153432.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -8257,42 +8254,42 @@
       <c r="B10" s="10">
         <v>8.0</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>15</v>
+      <c r="C10" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="12">
         <v>87527.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="21" t="str">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="22" t="str">
         <f>SUM(D3:D10)</f>
         <v>1080344</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10">
         <v>1.0</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="12">
@@ -8305,7 +8302,7 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="H12" s="14">
         <v>88.31</v>
@@ -8313,19 +8310,19 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10">
         <v>2.0</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>15</v>
+      <c r="C13" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="12">
         <v>125040.0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -8333,19 +8330,19 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B14" s="10">
         <v>3.0</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>15</v>
+      <c r="C14" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="12">
         <v>142908.0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -8353,19 +8350,19 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10">
         <v>4.0</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="12">
         <v>143689.0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -8373,19 +8370,19 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10">
         <v>5.0</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="12">
         <v>46683.0</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -8393,7 +8390,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10">
         <v>6.0</v>
@@ -8413,60 +8410,60 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B18" s="10">
         <v>7.0</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>15</v>
+      <c r="C18" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D18" s="12">
         <v>152529.0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="21" t="str">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="22" t="str">
         <f>SUM(D12:D18)</f>
         <v>897230</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B20" s="10">
         <v>1.0</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>58</v>
+      <c r="C20" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="12">
         <v>138549.0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F20" s="14">
         <v>0.0</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="14">
         <v>72.41</v>
@@ -8474,19 +8471,19 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21" s="10">
         <v>2.0</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>15</v>
+      <c r="C21" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D21" s="12">
         <v>153708.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -8494,19 +8491,19 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B22" s="10">
         <v>3.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="12">
         <v>147864.0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -8514,19 +8511,19 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B23" s="10">
         <v>4.0</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>37</v>
+      <c r="C23" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="12">
         <v>168640.0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -8534,12 +8531,12 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" s="10">
         <v>5.0</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="12">
@@ -8553,41 +8550,41 @@
       <c r="H24" s="16"/>
     </row>
     <row r="25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="21" t="str">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="22" t="str">
         <f>SUM(D20:D24)</f>
         <v>783333</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B26" s="10">
         <v>1.0</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>21</v>
+      <c r="C26" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="D26" s="12">
         <v>174525.0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F26" s="14">
         <v>0.0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H26" s="14">
         <v>54.33</v>
@@ -8595,19 +8592,19 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B27" s="10">
         <v>2.0</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>58</v>
+      <c r="C27" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D27" s="12">
         <v>147331.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -8615,19 +8612,19 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B28" s="10">
         <v>3.0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>33</v>
+      <c r="C28" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D28" s="12">
         <v>150575.0</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -8635,19 +8632,19 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B29" s="10">
         <v>4.0</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>43</v>
+      <c r="C29" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D29" s="12">
         <v>109964.0</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -8655,38 +8652,38 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B30" s="10">
         <v>5.0</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>43</v>
+      <c r="C30" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="12">
         <v>109945.0</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="21" t="str">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="22" t="str">
         <f>SUM(D26:D30)</f>
         <v>692340</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32">
       <c r="A32" s="8"/>
@@ -8699,7 +8696,7 @@
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D33" s="28" t="str">
         <f>(D11+D19+D25+D31)</f>
@@ -15527,6 +15524,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G11"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="F26:F31"/>
     <mergeCell ref="H12:H19"/>
     <mergeCell ref="H20:H25"/>
     <mergeCell ref="H3:H11"/>
@@ -15534,11 +15536,6 @@
     <mergeCell ref="G20:G25"/>
     <mergeCell ref="G26:G31"/>
     <mergeCell ref="F12:F19"/>
-    <mergeCell ref="F3:F11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G11"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="F26:F31"/>
     <mergeCell ref="G12:G19"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -15563,7 +15560,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -15637,7 +15634,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H3" s="14">
         <v>87.87</v>
@@ -15671,13 +15668,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D5" s="12">
         <v>198655.0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -15691,13 +15688,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D6" s="12">
         <v>196203.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -15711,13 +15708,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D7" s="12">
         <v>198431.0</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -15730,14 +15727,14 @@
       <c r="B8" s="10">
         <v>6.0</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>37</v>
+      <c r="C8" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="12">
         <v>166675.0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -15750,7 +15747,7 @@
       <c r="B9" s="10">
         <v>7.0</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12">
@@ -15764,41 +15761,41 @@
       <c r="H9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="21" t="str">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="22" t="str">
         <f>SUM(D3:D9)</f>
         <v>1316363</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B11" s="10">
         <v>1.0</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>33</v>
+      <c r="C11" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="12">
         <v>199798.0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F11" s="14">
         <v>2.0</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H11" s="14">
         <v>89.71</v>
@@ -15806,19 +15803,19 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10">
         <v>2.0</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>33</v>
+      <c r="C12" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="12">
         <v>199994.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -15826,7 +15823,7 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10">
         <v>3.0</v>
@@ -15845,28 +15842,28 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="21" t="str">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="22" t="str">
         <f>SUM(D11:D13)</f>
         <v>548939</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B15" s="10">
         <v>1.0</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="12">
@@ -15879,7 +15876,7 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H15" s="14">
         <v>85.34</v>
@@ -15887,19 +15884,19 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B16" s="10">
         <v>2.0</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>33</v>
+      <c r="C16" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="12">
         <v>131668.0</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -15907,19 +15904,19 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B17" s="10">
         <v>3.0</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>33</v>
+      <c r="C17" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="12">
         <v>121149.0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -15927,19 +15924,19 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B18" s="10">
         <v>4.0</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>41</v>
+      <c r="C18" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D18" s="12">
         <v>157648.0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -15947,19 +15944,19 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" s="10">
         <v>5.0</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>43</v>
+      <c r="C19" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="12">
         <v>144651.0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -15967,19 +15964,19 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B20" s="10">
         <v>6.0</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>43</v>
+      <c r="C20" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D20" s="12">
         <v>150019.0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -15987,12 +15984,12 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21" s="10">
         <v>7.0</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="12">
@@ -16006,35 +16003,35 @@
       <c r="H21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="21" t="str">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="22" t="str">
         <f>SUM(D15:D21)</f>
         <v>927181</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B23" s="10">
         <v>1.0</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>26</v>
+      <c r="C23" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="12">
         <v>148474.0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F23" s="14">
         <v>0.0</v>
@@ -16048,19 +16045,19 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B24" s="10">
         <v>2.0</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>43</v>
+      <c r="C24" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="12">
         <v>147768.0</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -16068,38 +16065,38 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B25" s="10">
         <v>3.0</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>43</v>
+      <c r="C25" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D25" s="12">
         <v>94056.0</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="21" t="str">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="22" t="str">
         <f>SUM(D23:D25)</f>
         <v>390298</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27">
       <c r="A27" s="8"/>
@@ -16112,7 +16109,7 @@
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D28" s="28" t="str">
         <f>(D10+D14+D22+D26)</f>
@@ -22941,18 +22938,18 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="G3:G10"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
     <mergeCell ref="G15:G22"/>
     <mergeCell ref="F15:F22"/>
-    <mergeCell ref="H11:H14"/>
     <mergeCell ref="H3:H10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="H15:H22"/>
     <mergeCell ref="H23:H26"/>
-    <mergeCell ref="G11:G14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22977,7 +22974,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -23051,7 +23048,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H3" s="14">
         <v>78.78</v>
@@ -23064,14 +23061,14 @@
       <c r="B4" s="10">
         <v>2.0</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>15</v>
+      <c r="C4" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="12">
         <v>157427.0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -23085,13 +23082,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D5" s="12">
         <v>109240.0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -23105,13 +23102,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D6" s="12">
         <v>108969.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -23125,13 +23122,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D7" s="12">
         <v>109170.0</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -23145,13 +23142,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D8" s="12">
         <v>109314.0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -23165,13 +23162,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D9" s="12">
         <v>109265.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -23185,13 +23182,13 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D10" s="12">
         <v>150000.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -23205,13 +23202,13 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D11" s="12">
         <v>42818.0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -23245,54 +23242,54 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D13" s="12">
         <v>127472.0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="21" t="str">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="22" t="str">
         <f>SUM(D3:D13)</f>
         <v>1299720</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10">
         <v>1.0</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>35</v>
+      <c r="C15" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="12">
         <v>68379.0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F15" s="14">
         <v>0.0</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H15" s="14">
         <v>72.72</v>
@@ -23300,19 +23297,19 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10">
         <v>2.0</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>43</v>
+      <c r="C16" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="12">
         <v>129889.0</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -23320,19 +23317,19 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10">
         <v>3.0</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>43</v>
+      <c r="C17" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D17" s="12">
         <v>129321.0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -23340,19 +23337,19 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B18" s="10">
         <v>4.0</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>43</v>
+      <c r="C18" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="12">
         <v>129490.0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -23360,19 +23357,19 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B19" s="10">
         <v>5.0</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>43</v>
+      <c r="C19" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="12">
         <v>126935.0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -23380,19 +23377,19 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B20" s="10">
         <v>6.0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D20" s="12">
         <v>148650.0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -23400,19 +23397,19 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B21" s="10">
         <v>7.0</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>43</v>
+      <c r="C21" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D21" s="12">
         <v>129054.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -23420,12 +23417,12 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B22" s="10">
         <v>8.0</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="12">
@@ -23439,41 +23436,41 @@
       <c r="H22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="21" t="str">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="22" t="str">
         <f>SUM(D15:D22)</f>
         <v>982762</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" s="10">
         <v>1.0</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>33</v>
+      <c r="C24" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="12">
         <v>165640.0</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F24" s="14">
         <v>0.0</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H24" s="14">
         <v>81.89</v>
@@ -23481,19 +23478,19 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10">
         <v>2.0</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>41</v>
+      <c r="C25" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D25" s="12">
         <v>135960.0</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -23501,19 +23498,19 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B26" s="10">
         <v>3.0</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>15</v>
+      <c r="C26" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="12">
         <v>109951.0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -23521,19 +23518,19 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B27" s="10">
         <v>4.0</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>58</v>
+      <c r="C27" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D27" s="12">
         <v>141852.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -23541,19 +23538,19 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B28" s="10">
         <v>5.0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>43</v>
+      <c r="C28" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D28" s="12">
         <v>147635.0</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -23561,19 +23558,19 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B29" s="10">
         <v>6.0</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>43</v>
+      <c r="C29" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D29" s="12">
         <v>146058.0</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -23581,19 +23578,19 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B30" s="10">
         <v>7.0</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>43</v>
+      <c r="C30" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="12">
         <v>149500.0</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -23601,12 +23598,12 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B31" s="10">
         <v>8.0</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="12">
@@ -23621,60 +23618,60 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B32" s="10">
         <v>9.0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D32" s="12">
         <v>139978.0</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
     </row>
     <row r="33">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="21" t="str">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="22" t="str">
         <f>SUM(D24:D32)</f>
         <v>1240719</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B34" s="10">
         <v>1.0</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>43</v>
+      <c r="C34" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="12">
         <v>113970.0</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F34" s="14">
         <v>0.0</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H34" s="14">
         <v>81.88</v>
@@ -23682,19 +23679,19 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B35" s="10">
         <v>2.0</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>41</v>
+      <c r="C35" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D35" s="12">
         <v>146143.0</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -23702,19 +23699,19 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B36" s="10">
         <v>3.0</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>33</v>
+      <c r="C36" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="12">
         <v>193285.0</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -23722,19 +23719,19 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B37" s="10">
         <v>4.0</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>33</v>
+      <c r="C37" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D37" s="12">
         <v>193057.0</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -23742,19 +23739,19 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B38" s="10">
         <v>5.0</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>37</v>
+      <c r="C38" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="D38" s="12">
         <v>178900.0</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -23762,38 +23759,38 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B39" s="10">
         <v>6.0</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>43</v>
+      <c r="C39" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D39" s="12">
         <v>109964.0</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
     </row>
     <row r="40">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="21" t="str">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="22" t="str">
         <f>SUM(D34:D39)</f>
         <v>935319</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
     </row>
     <row r="41">
       <c r="A41" s="8"/>
@@ -23806,7 +23803,7 @@
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D42" s="28" t="str">
         <f>(D14+D23+D33+D40)</f>
@@ -30634,6 +30631,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G34:G40"/>
+    <mergeCell ref="F34:F40"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G15:G23"/>
+    <mergeCell ref="F15:F23"/>
     <mergeCell ref="G3:G14"/>
     <mergeCell ref="H3:H14"/>
     <mergeCell ref="G24:G33"/>
@@ -30641,12 +30644,6 @@
     <mergeCell ref="H15:H23"/>
     <mergeCell ref="H24:H33"/>
     <mergeCell ref="H34:H40"/>
-    <mergeCell ref="G34:G40"/>
-    <mergeCell ref="F34:F40"/>
-    <mergeCell ref="F3:F14"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G15:G23"/>
-    <mergeCell ref="F15:F23"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30671,7 +30668,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -30732,20 +30729,20 @@
       <c r="B3" s="10">
         <v>1.0</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>15</v>
+      <c r="C3" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="12">
         <v>138787.0</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" s="14">
         <v>0.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H3" s="14">
         <v>63.63</v>
@@ -30779,13 +30776,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D5" s="12">
         <v>150000.0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -30798,7 +30795,7 @@
       <c r="B6" s="10">
         <v>4.0</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="12">
@@ -30818,7 +30815,7 @@
       <c r="B7" s="10">
         <v>5.0</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="12">
@@ -30838,7 +30835,7 @@
       <c r="B8" s="10">
         <v>6.0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="12">
@@ -30858,7 +30855,7 @@
       <c r="B9" s="10">
         <v>7.0</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="12">
@@ -30872,41 +30869,41 @@
       <c r="H9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="21" t="str">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="22" t="str">
         <f>SUM(D3:D9)</f>
         <v>940328</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B11" s="10">
         <v>1.0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="12">
         <v>129308.0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="14">
         <v>0.0</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H11" s="14">
         <v>54.54</v>
@@ -30914,19 +30911,19 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10">
         <v>2.0</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>43</v>
+      <c r="C12" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="12">
         <v>127565.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -30934,19 +30931,19 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10">
         <v>3.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D13" s="12">
         <v>140533.0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -30954,19 +30951,19 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B14" s="10">
         <v>4.0</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>43</v>
+      <c r="C14" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="12">
         <v>129636.0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -30974,19 +30971,19 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10">
         <v>5.0</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>43</v>
+      <c r="C15" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D15" s="12">
         <v>135983.0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -30994,19 +30991,19 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10">
         <v>6.0</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>17</v>
+      <c r="C16" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="D16" s="12">
         <v>132444.0</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -31014,12 +31011,12 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10">
         <v>7.0</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="12">
@@ -31034,12 +31031,12 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B18" s="10">
         <v>8.0</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="12">
@@ -31053,28 +31050,28 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="21" t="str">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="22" t="str">
         <f>SUM(D11:D18)</f>
         <v>1050903</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B20" s="10">
         <v>1.0</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="12">
@@ -31087,7 +31084,7 @@
         <v>0.0</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H20" s="14">
         <v>68.96</v>
@@ -31095,19 +31092,19 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21" s="10">
         <v>2.0</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>43</v>
+      <c r="C21" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D21" s="12">
         <v>129566.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -31115,12 +31112,12 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B22" s="10">
         <v>3.0</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="12">
@@ -31135,19 +31132,19 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B23" s="10">
         <v>4.0</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>37</v>
+      <c r="C23" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="12">
         <v>168640.0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -31155,19 +31152,19 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" s="10">
         <v>5.0</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>43</v>
+      <c r="C24" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="12">
         <v>132256.0</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -31175,19 +31172,19 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10">
         <v>6.0</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>43</v>
+      <c r="C25" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D25" s="12">
         <v>143023.0</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -31195,19 +31192,19 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B26" s="10">
         <v>7.0</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>43</v>
+      <c r="C26" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D26" s="12">
         <v>146613.0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -31215,19 +31212,19 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B27" s="10">
         <v>8.0</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>43</v>
+      <c r="C27" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="12">
         <v>149500.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -31235,60 +31232,60 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B28" s="10">
         <v>9.0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>15</v>
+      <c r="C28" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D28" s="12">
         <v>163158.0</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="21" t="str">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="22" t="str">
         <f>SUM(D20:D28)</f>
         <v>1224988</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B30" s="10">
         <v>1.0</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>43</v>
+      <c r="C30" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="12">
         <v>119893.0</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F30" s="14">
         <v>0.0</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H30" s="14">
         <v>81.1</v>
@@ -31296,19 +31293,19 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B31" s="10">
         <v>2.0</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>43</v>
+      <c r="C31" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="12">
         <v>162196.0</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -31316,12 +31313,12 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B32" s="10">
         <v>3.0</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="12">
@@ -31336,19 +31333,19 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B33" s="10">
         <v>4.0</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>41</v>
+      <c r="C33" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="12">
         <v>162196.0</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -31356,38 +31353,38 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B34" s="10">
         <v>5.0</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D34" s="12">
         <v>159070.0</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
     </row>
     <row r="35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="21" t="str">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="22" t="str">
         <f>SUM(D30:D34)</f>
         <v>739928</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36">
       <c r="A36" s="8"/>
@@ -31400,7 +31397,7 @@
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D37" s="28" t="str">
         <f>(D10+D19+D29+D35)</f>
@@ -38228,19 +38225,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F20:F29"/>
+    <mergeCell ref="F11:F19"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="H3:H10"/>
     <mergeCell ref="H11:H19"/>
     <mergeCell ref="H20:H29"/>
-    <mergeCell ref="G3:G10"/>
     <mergeCell ref="G11:G19"/>
-    <mergeCell ref="F20:F29"/>
     <mergeCell ref="F30:F35"/>
     <mergeCell ref="G20:G29"/>
     <mergeCell ref="G30:G35"/>
-    <mergeCell ref="F11:F19"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="A1:G1"/>
     <mergeCell ref="H30:H35"/>
-    <mergeCell ref="H3:H10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -38326,14 +38323,14 @@
       <c r="B3" s="10">
         <v>1.0</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>15</v>
+      <c r="C3" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="30">
         <v>148120.0</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" s="14">
         <v>0.0</v>
@@ -38353,13 +38350,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D4" s="30">
         <v>141568.0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -38412,14 +38409,14 @@
       <c r="B7" s="10">
         <v>5.0</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>15</v>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="30">
         <v>99783.0</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -38452,14 +38449,14 @@
       <c r="B9" s="10">
         <v>7.0</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>15</v>
+      <c r="C9" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="30">
         <v>155142.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -38472,14 +38469,14 @@
       <c r="B10" s="10">
         <v>8.0</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="30">
         <v>138654.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -38513,13 +38510,13 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="30">
         <v>130492.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -38533,41 +38530,41 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="30">
         <v>130659.0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="21" t="str">
-        <f>SUM(D3:D10)</f>
-        <v>1076795</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="22" t="str">
+        <f>SUM(D3:D13)</f>
+        <v>1533021</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10">
         <v>1.0</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="30">
@@ -38580,7 +38577,7 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="14">
         <v>57.14</v>
@@ -38588,19 +38585,19 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10">
         <v>2.0</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>15</v>
+      <c r="C16" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="30">
         <v>176915.0</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -38608,19 +38605,19 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10">
         <v>3.0</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="30">
         <v>183923.0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -38628,12 +38625,12 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B18" s="10">
         <v>4.0</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="30">
@@ -38648,19 +38645,19 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B19" s="10">
         <v>5.0</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>43</v>
+      <c r="C19" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="30">
         <v>131075.0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -38668,19 +38665,19 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B20" s="10">
         <v>6.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D20" s="30">
         <v>136009.0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -38688,19 +38685,19 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B21" s="10">
         <v>7.0</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>43</v>
+      <c r="C21" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D21" s="30">
         <v>69617.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -38708,60 +38705,60 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B22" s="10">
         <v>8.0</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>43</v>
+      <c r="C22" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="30">
         <v>84274.0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="21" t="str">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="22" t="str">
         <f>SUM(D15:D22)</f>
         <v>1053022</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" s="10">
         <v>1.0</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>15</v>
+      <c r="C24" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D24" s="30">
         <v>158008.0</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F24" s="14">
         <v>0.0</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="14">
         <v>62.06</v>
@@ -38769,19 +38766,19 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10">
         <v>2.0</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>15</v>
+      <c r="C25" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D25" s="30">
         <v>78955.0</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -38789,19 +38786,19 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B26" s="10">
         <v>3.0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="30">
         <v>56486.0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -38809,19 +38806,19 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B27" s="10">
         <v>4.0</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>41</v>
+      <c r="C27" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="30">
         <v>162258.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -38829,19 +38826,19 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B28" s="10">
         <v>5.0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>43</v>
+      <c r="C28" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D28" s="30">
         <v>154946.0</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -38849,19 +38846,19 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B29" s="10">
         <v>6.0</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>43</v>
+      <c r="C29" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D29" s="30">
         <v>140400.0</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -38869,19 +38866,19 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B30" s="10">
         <v>7.0</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>43</v>
+      <c r="C30" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="30">
         <v>157000.0</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -38889,60 +38886,60 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B31" s="10">
         <v>8.0</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>43</v>
+      <c r="C31" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="30">
         <v>139667.0</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="21" t="str">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="22" t="str">
         <f>SUM(D24:D31)</f>
         <v>1047720</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B33" s="10">
         <v>1.0</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>43</v>
+      <c r="C33" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D33" s="30">
         <v>119503.0</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F33" s="14">
         <v>0.0</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H33" s="14">
         <v>64.56</v>
@@ -38950,19 +38947,19 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B34" s="10">
         <v>2.0</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>43</v>
+      <c r="C34" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="30">
         <v>119971.0</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -38970,19 +38967,19 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B35" s="10">
         <v>3.0</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>15</v>
+      <c r="C35" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D35" s="30">
         <v>176308.0</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -38990,19 +38987,19 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B36" s="10">
         <v>4.0</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>41</v>
+      <c r="C36" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D36" s="30">
         <v>163475.0</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -39010,12 +39007,12 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B37" s="10">
         <v>5.0</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="30">
@@ -39030,38 +39027,38 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B38" s="10">
         <v>6.0</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>41</v>
+      <c r="C38" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D38" s="30">
         <v>157817.0</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
     </row>
     <row r="39">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="21" t="str">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="22" t="str">
         <f>SUM(D33:D38)</f>
         <v>884595</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40">
       <c r="A40" s="8"/>
@@ -39074,11 +39071,11 @@
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D41" s="28" t="str">
         <f>(D14+D23+D32+D39)</f>
-        <v>4062132</v>
+        <v>4518358</v>
       </c>
       <c r="E41" s="26"/>
     </row>
@@ -45905,18 +45902,18 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G15:G23"/>
+    <mergeCell ref="H15:H23"/>
+    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="G33:G39"/>
     <mergeCell ref="G24:G32"/>
     <mergeCell ref="F24:F32"/>
     <mergeCell ref="F15:F23"/>
-    <mergeCell ref="G3:G14"/>
-    <mergeCell ref="G15:G23"/>
     <mergeCell ref="H33:H39"/>
     <mergeCell ref="F33:F39"/>
-    <mergeCell ref="H15:H23"/>
     <mergeCell ref="H3:H14"/>
-    <mergeCell ref="F3:F14"/>
-    <mergeCell ref="A1:G1"/>
     <mergeCell ref="H24:H32"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -45942,7 +45939,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -46003,20 +46000,20 @@
       <c r="B3" s="10">
         <v>1.0</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>15</v>
+      <c r="C3" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="12">
         <v>79768.0</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" s="14">
         <v>2.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" s="14">
         <v>72.72</v>
@@ -46129,7 +46126,7 @@
       <c r="B9" s="10">
         <v>7.0</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="12">
@@ -46163,41 +46160,41 @@
       <c r="H10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="21" t="str">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="22" t="str">
         <f>SUM(D3:D10)</f>
         <v>1060391</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10">
         <v>1.0</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>41</v>
+      <c r="C12" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="12">
         <v>136643.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" s="14">
         <v>0.0</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="14">
         <v>66.23</v>
@@ -46205,19 +46202,19 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10">
         <v>2.0</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>41</v>
+      <c r="C13" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="12">
         <v>142536.0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -46225,19 +46222,19 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B14" s="10">
         <v>3.0</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>41</v>
+      <c r="C14" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="12">
         <v>140792.0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -46245,19 +46242,19 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10">
         <v>4.0</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>41</v>
+      <c r="C15" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="12">
         <v>141129.0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -46265,12 +46262,12 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10">
         <v>5.0</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="12">
@@ -46285,19 +46282,19 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10">
         <v>6.0</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D17" s="12">
         <v>82056.0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -46305,19 +46302,19 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B18" s="10">
         <v>7.0</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>41</v>
+      <c r="C18" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D18" s="12">
         <v>142645.0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -46325,19 +46322,19 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B19" s="10">
         <v>8.0</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>41</v>
+      <c r="C19" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="12">
         <v>74824.0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -46345,19 +46342,19 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B20" s="10">
         <v>9.0</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>15</v>
+      <c r="C20" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="12">
         <v>160304.0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -46365,19 +46362,19 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B21" s="10">
         <v>10.0</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>43</v>
+      <c r="C21" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D21" s="12">
         <v>144647.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -46385,60 +46382,60 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B22" s="10">
         <v>11.0</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>43</v>
+      <c r="C22" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="12">
         <v>135603.0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="21" t="str">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="22" t="str">
         <f>SUM(D12:D22)</f>
         <v>1414302</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" s="10">
         <v>1.0</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>43</v>
+      <c r="C24" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="12">
         <v>154946.0</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="14">
         <v>3.0</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="14">
         <v>62.06</v>
@@ -46446,19 +46443,19 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10">
         <v>2.0</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>43</v>
+      <c r="C25" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D25" s="12">
         <v>154946.0</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -46466,12 +46463,12 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B26" s="10">
         <v>3.0</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="12">
@@ -46486,12 +46483,12 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B27" s="10">
         <v>4.0</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="12">
@@ -46506,19 +46503,19 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B28" s="10">
         <v>5.0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>15</v>
+      <c r="C28" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D28" s="12">
         <v>127897.0</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -46526,19 +46523,19 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B29" s="10">
         <v>6.0</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>41</v>
+      <c r="C29" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D29" s="12">
         <v>149233.0</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -46546,19 +46543,19 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B30" s="10">
         <v>7.0</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>43</v>
+      <c r="C30" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="12">
         <v>137019.0</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -46566,12 +46563,12 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B31" s="10">
         <v>8.0</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="12">
@@ -46585,41 +46582,41 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="21" t="str">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="22" t="str">
         <f>SUM(D24:D31)</f>
         <v>1135004</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B33" s="10">
         <v>1.0</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>81</v>
+      <c r="C33" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="D33" s="12">
         <v>130608.0</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" s="14">
         <v>2.0</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H33" s="14">
         <v>74.8</v>
@@ -46627,19 +46624,19 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B34" s="10">
         <v>2.0</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>43</v>
+      <c r="C34" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="12">
         <v>119827.0</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -46647,19 +46644,19 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B35" s="10">
         <v>3.0</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>43</v>
+      <c r="C35" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D35" s="12">
         <v>122002.0</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -46667,19 +46664,19 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B36" s="10">
         <v>4.0</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>43</v>
+      <c r="C36" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D36" s="12">
         <v>122578.0</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -46687,12 +46684,12 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B37" s="10">
         <v>5.0</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="12">
@@ -46707,19 +46704,19 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B38" s="10">
         <v>6.0</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>15</v>
+      <c r="C38" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D38" s="12">
         <v>142915.0</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -46727,38 +46724,38 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B39" s="10">
         <v>7.0</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>81</v>
+      <c r="C39" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="D39" s="12">
         <v>130608.0</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
     </row>
     <row r="40">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="21" t="str">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="22" t="str">
         <f>SUM(D33:D39)</f>
         <v>864126</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
     </row>
     <row r="41">
       <c r="A41" s="8"/>
@@ -46771,7 +46768,7 @@
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D42" s="28" t="str">
         <f>(D11+D23+D32+D40)</f>
@@ -53599,19 +53596,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H24:H32"/>
+    <mergeCell ref="H3:H11"/>
+    <mergeCell ref="H12:H23"/>
+    <mergeCell ref="G3:G11"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="H33:H40"/>
     <mergeCell ref="G33:G40"/>
     <mergeCell ref="F33:F40"/>
-    <mergeCell ref="H24:H32"/>
     <mergeCell ref="G24:G32"/>
     <mergeCell ref="F24:F32"/>
     <mergeCell ref="G12:G23"/>
     <mergeCell ref="F12:F23"/>
-    <mergeCell ref="H3:H11"/>
-    <mergeCell ref="G3:G11"/>
-    <mergeCell ref="F3:F11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H12:H23"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -53636,7 +53633,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -53698,19 +53695,19 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="12">
         <v>140799.0</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" s="14">
         <v>1.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H3" s="14">
         <v>87.87</v>
@@ -53743,7 +53740,7 @@
       <c r="B5" s="10">
         <v>3.0</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="12">
@@ -53763,14 +53760,14 @@
       <c r="B6" s="10">
         <v>4.0</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>41</v>
+      <c r="C6" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="12">
         <v>142652.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -53783,14 +53780,14 @@
       <c r="B7" s="10">
         <v>5.0</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>15</v>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="12">
         <v>195432.0</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -53803,14 +53800,14 @@
       <c r="B8" s="10">
         <v>6.0</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>15</v>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="12">
         <v>195432.0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -53824,13 +53821,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D9" s="12">
         <v>172915.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -53843,55 +53840,55 @@
       <c r="B10" s="10">
         <v>8.0</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>58</v>
+      <c r="C10" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D10" s="12">
         <v>173215.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="21" t="str">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="22" t="str">
         <f>SUM(D3:D10)</f>
         <v>1279602</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10">
         <v>1.0</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>58</v>
+      <c r="C12" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D12" s="12">
         <v>141637.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F12" s="14">
         <v>0.0</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H12" s="14">
         <v>77.92</v>
@@ -53899,19 +53896,19 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10">
         <v>2.0</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>41</v>
+      <c r="C13" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="12">
         <v>144912.0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -53919,19 +53916,19 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B14" s="10">
         <v>3.0</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>58</v>
+      <c r="C14" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D14" s="12">
         <v>141637.0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -53939,12 +53936,12 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10">
         <v>4.0</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="12">
@@ -53959,19 +53956,19 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10">
         <v>5.0</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>15</v>
+      <c r="C16" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="12">
         <v>163765.0</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -53979,47 +53976,47 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10">
         <v>6.0</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>15</v>
+      <c r="C17" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="12">
         <v>163765.0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="21" t="str">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="22" t="str">
         <f>SUM(D12:D17)</f>
         <v>888929</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" s="10">
         <v>1.0</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="12">
@@ -54032,7 +54029,7 @@
         <v>0.0</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H19" s="14">
         <v>68.96</v>
@@ -54040,12 +54037,12 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B20" s="10">
         <v>2.0</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="12">
@@ -54060,19 +54057,19 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21" s="10">
         <v>3.0</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>58</v>
+      <c r="C21" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D21" s="12">
         <v>199750.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -54080,19 +54077,19 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B22" s="10">
         <v>4.0</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>58</v>
+      <c r="C22" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="12">
         <v>135840.0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -54100,19 +54097,19 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B23" s="10">
         <v>5.0</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>15</v>
+      <c r="C23" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D23" s="12">
         <v>44203.0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -54120,19 +54117,19 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" s="10">
         <v>6.0</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>15</v>
+      <c r="C24" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D24" s="12">
         <v>153713.0</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -54140,19 +54137,19 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10">
         <v>7.0</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>43</v>
+      <c r="C25" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D25" s="12">
         <v>147474.0</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -54160,60 +54157,60 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B26" s="10">
         <v>8.0</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>43</v>
+      <c r="C26" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D26" s="12">
         <v>145840.0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
     </row>
     <row r="27">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="21" t="str">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="22" t="str">
         <f>SUM(D19:D26)</f>
         <v>1014330</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B28" s="10">
         <v>1.0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>43</v>
+      <c r="C28" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D28" s="12">
         <v>117385.0</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F28" s="14">
         <v>0.0</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H28" s="14">
         <v>81.1</v>
@@ -54221,12 +54218,12 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B29" s="10">
         <v>2.0</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="12">
@@ -54241,12 +54238,12 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B30" s="10">
         <v>3.0</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="12">
@@ -54261,12 +54258,12 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B31" s="10">
         <v>4.0</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="12">
@@ -54280,19 +54277,19 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="21" t="str">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="22" t="str">
         <f>SUM(D28:D31)</f>
         <v>508397</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
@@ -54305,7 +54302,7 @@
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D34" s="28" t="str">
         <f>(D11+D18+D27+D32)</f>
@@ -61133,19 +61130,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="G3:G11"/>
+    <mergeCell ref="H3:H11"/>
     <mergeCell ref="F19:F27"/>
     <mergeCell ref="F3:F11"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G11"/>
     <mergeCell ref="F12:F18"/>
-    <mergeCell ref="H12:H18"/>
     <mergeCell ref="H19:H27"/>
     <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="G19:G27"/>
-    <mergeCell ref="G28:G32"/>
     <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H3:H11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -61170,7 +61167,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -61244,7 +61241,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H3" s="14">
         <v>87.87</v>
@@ -61257,7 +61254,7 @@
       <c r="B4" s="10">
         <v>2.0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="12">
@@ -61278,13 +61275,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="12">
         <v>141893.0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -61297,14 +61294,14 @@
       <c r="B6" s="10">
         <v>4.0</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>41</v>
+      <c r="C6" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="12">
         <v>120220.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -61317,14 +61314,14 @@
       <c r="B7" s="10">
         <v>5.0</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>15</v>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="12">
         <v>195432.0</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -61337,55 +61334,55 @@
       <c r="B8" s="10">
         <v>6.0</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>15</v>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="12">
         <v>195432.0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="21" t="str">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="22" t="str">
         <f>SUM(D3:D8)</f>
         <v>912913</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B10" s="10">
         <v>1.0</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>58</v>
+      <c r="C10" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D10" s="12">
         <v>142309.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F10" s="14">
         <v>0.0</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="14">
         <v>71.42</v>
@@ -61393,12 +61390,12 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B11" s="10">
         <v>2.0</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="12">
@@ -61413,19 +61410,19 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10">
         <v>3.0</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>41</v>
+      <c r="C12" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="12">
         <v>136779.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -61433,19 +61430,19 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10">
         <v>4.0</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>58</v>
+      <c r="C13" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D13" s="12">
         <v>141637.0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -61453,19 +61450,19 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B14" s="10">
         <v>5.0</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>15</v>
+      <c r="C14" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="12">
         <v>169906.0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -61473,47 +61470,47 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10">
         <v>6.0</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>15</v>
+      <c r="C15" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="12">
         <v>169906.0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="21" t="str">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="22" t="str">
         <f>SUM(D10:D15)</f>
         <v>893750</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B17" s="10">
         <v>1.0</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="12">
@@ -61526,7 +61523,7 @@
         <v>0.0</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="14">
         <v>77.58</v>
@@ -61534,19 +61531,19 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B18" s="10">
         <v>2.0</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>58</v>
+      <c r="C18" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D18" s="12">
         <v>135733.0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -61554,19 +61551,19 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" s="10">
         <v>3.0</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>58</v>
+      <c r="C19" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D19" s="12">
         <v>82511.0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -61574,19 +61571,19 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B20" s="10">
         <v>4.0</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>15</v>
+      <c r="C20" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="12">
         <v>151639.0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -61594,19 +61591,19 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21" s="10">
         <v>5.0</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>15</v>
+      <c r="C21" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D21" s="12">
         <v>161996.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -61614,19 +61611,19 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B22" s="10">
         <v>6.0</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>43</v>
+      <c r="C22" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="12">
         <v>146339.0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -61634,19 +61631,19 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B23" s="10">
         <v>7.0</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>43</v>
+      <c r="C23" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="12">
         <v>147031.0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -61654,60 +61651,60 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" s="10">
         <v>8.0</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D24" s="12">
         <v>128777.0</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
     <row r="25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="21" t="str">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="22" t="str">
         <f>SUM(D17:D24)</f>
         <v>1086535</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B26" s="10">
         <v>1.0</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>52</v>
+      <c r="C26" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="D26" s="12">
         <v>136535.0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F26" s="14">
         <v>0.0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" s="14">
         <v>94.48</v>
@@ -61715,19 +61712,19 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B27" s="10">
         <v>2.0</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>41</v>
+      <c r="C27" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="12">
         <v>96400.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -61735,38 +61732,38 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B28" s="10">
         <v>3.0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>15</v>
+      <c r="C28" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D28" s="12">
         <v>190654.0</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="21" t="str">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="22" t="str">
         <f>SUM(D26:D28)</f>
         <v>423589</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30">
       <c r="A30" s="8"/>
@@ -61779,7 +61776,7 @@
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D31" s="28" t="str">
         <f>(D9+D16+D25+D29)</f>
@@ -68607,19 +68604,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="G3:G9"/>
     <mergeCell ref="H17:H25"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="G10:G16"/>
     <mergeCell ref="H26:H29"/>
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="F26:F29"/>
     <mergeCell ref="G17:G25"/>
-    <mergeCell ref="F10:F16"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="G3:G9"/>
     <mergeCell ref="F3:F9"/>
-    <mergeCell ref="H10:H16"/>
     <mergeCell ref="F17:F25"/>
-    <mergeCell ref="G10:G16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -68644,7 +68641,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -68706,19 +68703,19 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="12">
         <v>100843.0</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" s="14">
         <v>3.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="14">
         <v>83.33</v>
@@ -68731,14 +68728,14 @@
       <c r="B4" s="10">
         <v>2.0</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>15</v>
+      <c r="C4" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="12">
         <v>166757.0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -68751,14 +68748,14 @@
       <c r="B5" s="10">
         <v>3.0</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>15</v>
+      <c r="C5" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="12">
         <v>166757.0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -68771,14 +68768,14 @@
       <c r="B6" s="10">
         <v>4.0</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>37</v>
+      <c r="C6" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="12">
         <v>197353.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -68811,7 +68808,7 @@
       <c r="B8" s="10">
         <v>6.0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="12">
@@ -68831,55 +68828,55 @@
       <c r="B9" s="10">
         <v>7.0</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>15</v>
+      <c r="C9" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="12">
         <v>161486.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="21" t="str">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="22" t="str">
         <f>SUM(D3:D9)</f>
         <v>1059116</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B11" s="10">
         <v>1.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D11" s="12">
         <v>67001.0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F11" s="14">
         <v>0.0</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="14">
         <v>83.11</v>
@@ -68887,7 +68884,7 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10">
         <v>2.0</v>
@@ -68907,19 +68904,19 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10">
         <v>3.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="12">
         <v>141387.0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -68927,19 +68924,19 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B14" s="10">
         <v>4.0</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>52</v>
+      <c r="C14" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="12">
         <v>65937.0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -68947,19 +68944,19 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10">
         <v>5.0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D15" s="12">
         <v>156824.0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -68967,12 +68964,12 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10">
         <v>6.0</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="12">
@@ -68987,12 +68984,12 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10">
         <v>7.0</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="12">
@@ -69006,41 +69003,41 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="21" t="str">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="22" t="str">
         <f>SUM(D11:D17)</f>
         <v>777775</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" s="10">
         <v>1.0</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>15</v>
+      <c r="C19" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D19" s="12">
         <v>157763.0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F19" s="14">
         <v>0.0</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H19" s="14">
         <v>68.1</v>
@@ -69048,19 +69045,19 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B20" s="10">
         <v>2.0</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>41</v>
+      <c r="C20" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D20" s="12">
         <v>129963.0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -69068,19 +69065,19 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21" s="10">
         <v>3.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="12">
         <v>138629.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -69088,19 +69085,19 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B22" s="10">
         <v>4.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="12">
         <v>135837.0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -69108,12 +69105,12 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B23" s="10">
         <v>5.0</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="12">
@@ -69128,12 +69125,12 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" s="10">
         <v>6.0</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="12">
@@ -69148,12 +69145,12 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10">
         <v>7.0</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="12">
@@ -69167,41 +69164,41 @@
       <c r="H25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="21" t="str">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="22" t="str">
         <f>SUM(D19:D25)</f>
         <v>943149</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B27" s="10">
         <v>1.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="12">
         <v>87612.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" s="14">
         <v>0.0</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H27" s="14">
         <v>87.4</v>
@@ -69209,19 +69206,19 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B28" s="10">
         <v>2.0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>41</v>
+      <c r="C28" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D28" s="12">
         <v>169492.0</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -69229,12 +69226,12 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B29" s="10">
         <v>3.0</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="12">
@@ -69249,12 +69246,12 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B30" s="10">
         <v>4.0</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="12">
@@ -69269,12 +69266,12 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B31" s="10">
         <v>5.0</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="12">
@@ -69289,38 +69286,38 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B32" s="10">
         <v>6.0</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>33</v>
+      <c r="C32" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="D32" s="12">
         <v>123621.0</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
     </row>
     <row r="33">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="21" t="str">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="22" t="str">
         <f>SUM(D27:D32)</f>
         <v>848126</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34">
       <c r="A34" s="8"/>
@@ -69333,7 +69330,7 @@
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D35" s="28" t="str">
         <f>(D10+D18+D26+D33)</f>
@@ -76161,19 +76158,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="F27:F33"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="H3:H10"/>
     <mergeCell ref="H19:H26"/>
     <mergeCell ref="H11:H18"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="F11:F18"/>
     <mergeCell ref="G19:G26"/>
     <mergeCell ref="F19:F26"/>
-    <mergeCell ref="G3:G10"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="H3:H10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
